--- a/output/result - Gemini1.5pro_v2.xlsx
+++ b/output/result - Gemini1.5pro_v2.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="115">
   <si>
     <t>Case Name</t>
   </si>
@@ -58,6 +58,9 @@
     <t>Verification Result</t>
   </si>
   <si>
+    <t>Comments</t>
+  </si>
+  <si>
     <t>Test Case 1</t>
   </si>
   <si>
@@ -67,41 +70,107 @@
     <t>input\video\1.mp4</t>
   </si>
   <si>
-    <t>Tell me what this video is doing, step by step. Mark each step with numbers like 1., 2., 3., etc.Do not include anything that is not in the video.</t>
-  </si>
-  <si>
-    <r>
-      <t>1. The user is on a website that displays weather information.
-2. The user is clicking on different cities in the weather information website.
-3. The user opens a spreadsheet program and enters the city names in the first column.
-4. The user opens a new browser window and enters the city names in the search bar.
-5. The user clicks on the search button and opens the first search result. 
-6. The user goes back to the spreadsheet. 
-7. The user starts typing something in the spreadsheet. 
-8. The user clicks on the city name on the weather information website.
-9. The user goes back to the spreadsheet and completes typing something.
-10. The user switches back and forth between the weather information website and the spreadsheet, copying information.
-11. The user closes the weather information website.
-12. The user clicks on a button on the spreadsheet, which is labeled “</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>确认</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”.</t>
-    </r>
+    <r>
+      <t>In the video, operater is searching citi tempreture from a website for a list of cities from spredsheet column A, and then fill spredsheet column B with the tempreture result. Tell me each detailed step in the video</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> in sequence with numbers (1, 2, 3, etc.). Do not include anything that is not shown in the video.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Here is a detailed list of the steps:
+1. The operator first clicks on cell **A2** in the spreadsheet, then clicks on cell **B2**.
+2. Then the operator clicks on the first city name, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上海市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, in the spreadsheet.
+3. The operator then clicks the address bar of the browser.
+4. The operator then clicks back to the spreadsheet, clicks on cell **A3**, then clicks on cell **B3**.
+5. The operator clicks on the second city name, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>北京市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, in the spreadsheet.
+6. The operator then clicks the address bar of the browser.
+7. The operator then clicks back to the spreadsheet, clicks on cell **A4**, then clicks on cell **B4**.
+8. The operator clicks on the third city name, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, in the spreadsheet.
+9. The operator then clicks the address bar of the browser.
+10. The operator then clicks back to the spreadsheet, clicks on cell **A5**, then clicks on cell **B5**.
+11. The operator clicks on the fourth city name, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>广州市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, in the spreadsheet.
+12. The operator then clicks the address bar of the browser.</t>
+    </r>
+  </si>
+  <si>
+    <t>\</t>
   </si>
   <si>
     <t>Test Case 4</t>
@@ -110,16 +179,40 @@
     <t>logical reasoning</t>
   </si>
   <si>
-    <t>After learning from the provided video on searching for weather forecasts, show the process step by step to search for the weather forecast for Yunnan.Do not include anything that is not in the video.</t>
-  </si>
-  <si>
-    <t>1. Open a browser and go to **weather.com**.
-2. In the search bar, type **Yunnan**.
-3. Click the **search** button.
-4. The weather forecast for Yunnan will be displayed.</t>
-  </si>
-  <si>
-    <t>Test Case 5</t>
+    <r>
+      <t xml:space="preserve">The video shows steps how to search for the weather tempreture for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>some cities</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> from an opened website and fill back to spreadsheet with the rempreture result. Based on the steps in the video, describe how to get the weather tempreture for "Yunnan" following same steps.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Find the city name "Yunnan" on the spreadsheet.
+2. Copy the city name.
+3. On the weather website, paste the city name "Yunnan" into the search bar.
+4. Press Enter to search for the weather in Yunnan.
+5. Find the temperature for Yunnan on the webpage.
+6. Copy the temperature for Yunnan.
+7. Go back to the spreadsheet.
+8. Find the corresponding cell for Yunnan's temperature.
+9. Paste the temperature into the cell.</t>
+  </si>
+  <si>
+    <t>Test Case 7</t>
   </si>
   <si>
     <t>Vedio2Frame</t>
@@ -128,35 +221,64 @@
     <t>action understanding in video</t>
   </si>
   <si>
-    <t>After learning from the provided video, tell how many steps are there in total. Do not include anything that is not in the video.In this context, a step is defined as an individual action such as clicking a button or selecting a dropdown value. Only give the number in the answer.</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>Test Case 7</t>
-  </si>
-  <si>
-    <t>A step is defined as an individual action such as clicking a button or selecting a dropdown value. After learning from the provided video, identify each step and its corresponding time stamp. Do not include anything that is not in the video.Present the results in JSON format where the key is the time stamp and the value is the description of the step.</t>
+    <t>input\video\6.mp4</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Analyze the video which clicked some Excel cell in column A and then entered value. Output in JSON format with details of each click (including number of steps for each click, clicked cell position, cell value and the timestamp at which each step occurs). Note that there is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>computer system time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> shown in the lower right corner of the video which can be refered for the timestamp.</t>
+    </r>
   </si>
   <si>
     <t>```json
-{
-  "0:01": "Click on the search bar",
-  "0:05": "Type in the city name \"Shanghai\" into the search bar",
-  "0:08": "Click on the search button",
-  "0:12": "Click the \"today\" button",
-  "0:14": "Click the \"temperature\" button",
-  "0:16": "Click the \"temperature\" button",
-  "0:19": "Click on the search bar",
-  "0:23": "Type in the city name \"Guangzhou\" into the search bar",
-  "0:25": "Click the \"temperature\" button",
-  "0:26": "Click the \"temperature\" button",
-  "0:27": "Click on the search bar",
-  "0:31": "Type in the city name \"Guilin\" into the search bar",
-  "0:34": "Click the \"temperature\" button",
-  "0:36": "Click the \"temperature\" button"
-}
+[
+  {
+    "step": 1,
+    "cell_position": "A4",
+    "cell_value": "",
+    "timestamp": "00:02"
+  },
+  {
+    "step": 2,
+    "cell_position": "A4",
+    "cell_value": "1",
+    "timestamp": "00:06"
+  },
+  {
+    "step": 3,
+    "cell_position": "A7",
+    "cell_value": "",
+    "timestamp": "00:09"
+  },
+  {
+    "step": 4,
+    "cell_position": "A7",
+    "cell_value": "2",
+    "timestamp": "00:11"
+  },
+  {
+    "step": 5,
+    "cell_position": "A10",
+    "cell_value": "",
+    "timestamp": "00:13"
+  }
+]
 ```</t>
   </si>
   <si>
@@ -166,7 +288,26 @@
     <t>application recognition in video</t>
   </si>
   <si>
-    <t>List all the window titles that are open on the screen. Window title is usually at the top of the application window within the title bar.Use a numbered list (e.g., 1. [title1], 2. [title2], etc.).</t>
+    <r>
+      <t>List all the window titles that are open on the screen with a numbered list (e.g., 1. [title1], 2. [title2], etc.).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Window title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> is usually at the top of the application window within the title bar.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -211,42 +352,160 @@
     </r>
   </si>
   <si>
-    <t>Test Case 10</t>
-  </si>
-  <si>
-    <t>widnow recognition in video</t>
-  </si>
-  <si>
-    <t>Tell the window title of the application on the left side of the video. The application is opened in a browser. Window title is usually at the top of the application window within the title bar.Window titles of applications opened in a browser usually have an underscore followed by the browser type(like chrome) as a suffix.</t>
-  </si>
-  <si>
-    <r>
-      <t>The window title of the application on the left side of the video is "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天气预报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_Google Chrome".</t>
-    </r>
-  </si>
-  <si>
-    <t>Test Case 11</t>
-  </si>
-  <si>
-    <t>What is the window title of the application on the right side of the screen? Window title is usually at the top of the application window within the title bar.</t>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都市天气</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>百度搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上海天气</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>百度搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>北京天气</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>百度搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>广州天气</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>百度搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2. work.xlsx</t>
+    </r>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
   <si>
     <t>Test Case 12</t>
@@ -255,14 +514,53 @@
     <t>position recognition in video</t>
   </si>
   <si>
-    <t>After learning from the provided video with a known resolution of 2557*1440, identify action steps in each frame in the video and determine the pixel coordinates of each step. In this context, a step is defined as an individual action such as clicking a button or selecting a dropdown value.Present the results with all action steps in JSON format where the key is the frame number and the value is the corresponding pixel coordinates.</t>
-  </si>
-  <si>
-    <t>```json
+    <r>
+      <t xml:space="preserve">Please analyze the video and output the actions in the video in JSON format. Include the action type (e.g., click, drop down), the title of the application window where the action occurs, the pixel position of each action. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">The specific task is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>to search for the temperature of cities on a temperature website and write the temperature information of the cities into an Excel spreadsheet. The list of cities is in the Excel spreadsheet.  Note that the resolution of the video when I recorded it is 2560*1379.Window title is usually at the top of the application window within the title bar.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>```json
 {
   "8": [
     {
       "action": "click",
+   "window_title": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询天气预报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> - Google Chrome",
       "coordinates": [
         928,
         153
@@ -272,6 +570,25 @@
   "10": [
     {
       "action": "click",
+   "window_title": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询天气预报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> - Google Chrome",
       "coordinates": [
         823,
         149
@@ -281,6 +598,25 @@
   "11": [
     {
       "action": "click",
+   "window_title": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询天气预报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> - Google Chrome",
       "coordinates": [
         17,
         229
@@ -290,6 +626,25 @@
   "17": [
     {
       "action": "click",
+   "window_title": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询天气预报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> - Google Chrome",
       "coordinates": [
         924,
         152
@@ -299,6 +654,25 @@
   "18": [
     {
       "action": "click",
+   "window_title": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询天气预报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> - Google Chrome",
       "coordinates": [
         823,
         149
@@ -308,6 +682,25 @@
   "19": [
     {
       "action": "click",
+   "window_title": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询天气预报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> - Google Chrome",
       "coordinates": [
         17,
         229
@@ -317,6 +710,25 @@
   "26": [
     {
       "action": "click",
+   "window_title": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询天气预报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> - Google Chrome",
       "coordinates": [
         887,
         301
@@ -326,6 +738,25 @@
   "29": [
     {
       "action": "click",
+   "window_title": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询天气预报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> - Google Chrome",
       "coordinates": [
         925,
         152
@@ -335,6 +766,25 @@
   "30": [
     {
       "action": "click",
+   "window_title": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询天气预报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> - Google Chrome",
       "coordinates": [
         17,
         229
@@ -344,6 +794,25 @@
   "36": [
     {
       "action": "click",
+   "window_title": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询天气预报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> - Google Chrome",
       "coordinates": [
         884,
         298
@@ -352,1018 +821,6 @@
   ]
 }
 ```</t>
-  </si>
-  <si>
-    <t>Test Case 13</t>
-  </si>
-  <si>
-    <t>After learning from the provided video with a known resolution of 2557*1440, identify each frame in the video and determine the pixel coordinates and the window title of application being operated of each frame. Window title is usually at the top of the application window within the title bar.Present the results in JSON format where the key is the frame number and the value is object containing the corresponding pixel coordinates and window title.</t>
-  </si>
-  <si>
-    <r>
-      <t>```json
-{
-  "0": {
-    "window_title": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询天气预报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> - Google Chrome",
-    "coordinates": [
-      0,
-      0,
-      2557,
-      1440
-    ]
-  },
-  "1": {
-    "window_title": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询天气预报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> - Google Chrome",
-    "coordinates": [
-      0,
-      0,
-      2557,
-      1440
-    ]
-  },
-  "2": {
-    "window_title": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询天气预报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> - Google Chrome",
-    "coordinates": [
-      0,
-      0,
-      2557,
-      1440
-    ]
-  },
-  "3": {
-    "window_title": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询天气预报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> - Google Chrome",
-    "coordinates": [
-      0,
-      0,
-      2557,
-      1440
-    ]
-  },
-  "4": {
-    "window_title": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询天气预报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> - Google Chrome",
-    "coordinates": [
-      0,
-      0,
-      2557,
-      1440
-    ]
-  },
-  "5": {
-    "window_title": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询天气预报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> - Google Chrome",
-    "coordinates": [
-      0,
-      0,
-      2557,
-      1440
-    ]
-  },
-  "6": {
-    "window_title": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询天气预报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> - Google Chrome",
-    "coordinates": [
-      0,
-      0,
-      2557,
-      1440
-    ]
-  },
-  "7": {
-    "window_title": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询天气预报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> - Google Chrome",
-    "coordinates": [
-      0,
-      0,
-      2557,
-      1440
-    ]
-  },
-  "8": {
-    "window_title": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询天气预报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> - Google Chrome",
-    "coordinates": [
-      0,
-      0,
-      2557,
-      1440
-    ]
-  },
-  "9": {
-    "window_title": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询天气预报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> - Google Chrome",
-    "coordinates": [
-      0,
-      0,
-      2557,
-      1440
-    ]
-  },
-  "10": {
-    "window_title": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询天气预报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> - Google Chrome",
-    "coordinates": [
-      0,
-      0,
-      2557,
-      1440
-    ]
-  },
-  "11": {
-    "window_title": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询天气预报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> - Google Chrome",
-    "coordinates": [
-      0,
-      0,
-      2557,
-      1440
-    ]
-  },
-  "12": {
-    "window_title": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询天气预报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> - Google Chrome",
-    "coordinates": [
-      0,
-      0,
-      2557,
-      1440
-    ]
-  },
-  "13": {
-    "window_title": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询天气预报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> - Google Chrome",
-    "coordinates": [
-      0,
-      0,
-      2557,
-      1440
-    ]
-  },
-  "14": {
-    "window_title": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询天气预报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> - Google Chrome",
-    "coordinates": [
-      0,
-      0,
-      2557,
-      1440
-    ]
-  },
-  "15": {
-    "window_title": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询天气预报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> - Google Chrome",
-    "coordinates": [
-      0,
-      0,
-      2557,
-      1440
-    ]
-  },
-  "16": {
-    "window_title": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询天气预报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> - Google Chrome",
-    "coordinates": [
-      0,
-      0,
-      2557,
-      1440
-    ]
-  },
-  "17": {
-    "window_title": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询天气预报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> - Google Chrome",
-    "coordinates": [
-      0,
-      0,
-      2557,
-      1440
-    ]
-  },
-  "18": {
-    "window_title": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询天气预报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> - Google Chrome",
-    "coordinates": [
-      0,
-      0,
-      2557,
-      1440
-    ]
-  },
-  "19": {
-    "window_title": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询天气预报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> - Google Chrome",
-    "coordinates": [
-      0,
-      0,
-      2557,
-      1440
-    ]
-  },
-  "20": {
-    "window_title": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询天气预报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> - Google Chrome",
-    "coordinates": [
-      0,
-      0,
-      2557,
-      1440
-    ]
-  },
-  "21": {
-    "window_title": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询天气预报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> - Google Chrome",
-    "coordinates": [
-      0,
-      0,
-      2557,
-      1440
-    ]
-  },
-  "22": {
-    "window_title": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询天气预报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> - Google Chrome",
-    "coordinates": [
-      0,
-      0,
-      2557,
-      1440
-    ]
-  },
-  "23": {
-    "window_title": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询天气预报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> - Google Chrome",
-    "coordinates": [
-      0,
-      0,
-      2557,
-      1440
-    ]
-  },
-  "24": {
-    "window_title": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询天气预报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> - Google Chrome",
-    "coordinates": [
-      0,
-      0,
-      2557,
-      1440
-    ]
-  },
-  "25": {
-    "window_title": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询天气预报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> - Google Chrome",
-    "coordinates": [
-      0,
-      0,
-      2557,
-      1440
-    ]
-  },
-  "26": {
-    "window_title": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询天气预报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> - Google Chrome",
-    "coordinates": [
-      0,
-      0,
-      2557,
-      1440
-    ]
-  },
-  "27": {
-    "window_title": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询天气预报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> - Google Chrome",
-    "coordinates": [
-      0,
-      0,
-      2557,
-      1440
-    ]
-  },
-  "28": {
-    "window_title": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询天气预报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> - Google Chrome",
-    "coordinates": [
-      0,
-      0,
-      2557,
-      1440
-    ]
-  },
-  "29": {
-    "window_title": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询天气预报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> - Google Chrome",
-    "coordinates": [
-      0,
-      0,
-      2557,
-      1440
-    ]
-  },
-  "30": {
-    "window_title": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询天气预报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> - Google Chrome",
-    "coordinates": [
-      0,
-      0,
-      2557,
-      1440
-    ]
-  },
-  "31": {
-    "window_title": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询天气预报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> - Google Chrome",
-    "coordinates": [
-      0,
-      0,
-      2557,
-      1440
-    ]
-  },
-  "32": {
-    "window_title": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询天气预报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> - Google Chrome",
-    "coordinates": [
-      0,
-      0,
-      2557,
-      1440
-    ]
-  },
-  "33": {
-    "window_title": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询天气预报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> - Google Chrome",
-    "coordinates": [
-      0,
-      0,
-      2557,
-      1440
-    ]
-  },
-  "34": {
-    "window_title": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询天气预报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> - Google Chrome",
-    "coordinates": [
-      0,
-      0,
-      2557,
-      1440
-    ]
-  },
-  "35": {
-    "window_title": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询天气预报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> - Google Chrome",
-    "coordinates": [
-      0,
-      0,
-      2557,
-      1440
-    ]
-  },
-  "36": {
-    "window_title": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询天气预报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> - Google Chrome",
-    "coordinates": [
-      0,
-      0,
-      2557,
-      1440
-    ]
-  }
-}
-```</t>
     </r>
   </si>
   <si>
@@ -1373,7 +830,43 @@
     <t>OCR</t>
   </si>
   <si>
-    <t>After learning from the provided video which shows the process of taking city names from an Excel sheet, searching for the weather and temperature of each city on a website, and filling the corresponding temperature information in the Excel sheet. Once all the city temperatures are filled in the Excel sheet, list the data in table format with columns for city name and temperature.</t>
+    <r>
+      <t xml:space="preserve">After learning from the provided video which </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>shows the process of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> taking city names from an Excel sheet, searching for the weather and temperature of each city on a website, and filling the corresponding temperature information in the Excel sheet. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Once all the city temperatures are filled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> in the Excel sheet, list the data in table format with columns for city name and temperature.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1441,16 +934,8 @@
     </r>
   </si>
   <si>
-    <t>Test Case 18</t>
-  </si>
-  <si>
-    <t>After learning from the provided video which shows the process of taking city names from an Excel sheet, searching for the weather and temperature of each city on a website, and filling the corresponding temperature information in the Excel sheet. Provide the data in table format with columns for city name and temperature at the end of the video.Do not include anything that is not in the video.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Here's the data extracted from the video in table format:
-| City Name | Temperature |
-|---|---|
+    <r>
+      <t xml:space="preserve">| City Name | Temperature |
 | </t>
     </r>
     <r>
@@ -1469,7 +954,7 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> | 25° |
+      <t xml:space="preserve"> | 35° |
 | </t>
     </r>
     <r>
@@ -1479,6 +964,25 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>北京</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> | 32° |
+| </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>广州</t>
     </r>
     <r>
@@ -1492,16 +996,78 @@
     </r>
   </si>
   <si>
-    <t>Test Case 20</t>
-  </si>
-  <si>
-    <t>After learning from the provided video which shows the process of taking city names from an Excel sheet, searching for the weather and temperature of each city on a website, and filling the corresponding temperature information in the Excel sheet. Provide the data in JSON format where the key is the city name and the value is the corresponding temperature at the end of the video.Do not include anything that is not in the video.</t>
-  </si>
-  <si>
-    <r>
-      <t>```json
-{
-"</t>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>Test Case 22</t>
+  </si>
+  <si>
+    <t>text recognition in video</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Analyze the video and output the list of all cities in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>order</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> they were processed. Prefix each city with a number (e.g., 1. City Name).Do not include any citi that is not shown in the video.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Here are the city names in the order they were processed:
+1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>昆明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上海</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3.</t>
     </r>
     <r>
       <rPr>
@@ -1512,15 +1078,10 @@
       </rPr>
       <t>广州</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>": "35°",
-"</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
     </r>
     <r>
       <rPr>
@@ -1538,8 +1099,8 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>": "32°",
-"</t>
+      <t xml:space="preserve">
+2.</t>
     </r>
     <r>
       <rPr>
@@ -1557,71 +1118,48 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>": "72°",
-"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>成都</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>": "35°"
-}
-```</t>
-    </r>
-  </si>
-  <si>
-    <t>Test Case 21</t>
-  </si>
-  <si>
-    <t>text recognition in video</t>
-  </si>
-  <si>
-    <t>At the end of the video, list the content of the spreadsheet column A in the order from top to bottom. Mark each item with numbers like 1., 2., 3., etc. and ensure the order is correct.</t>
-  </si>
-  <si>
-    <t>\</t>
-  </si>
-  <si>
-    <t>Test Case 22</t>
-  </si>
-  <si>
-    <t>At the end of the video, list all the city names that were operated on in the video in the order they were processed. Mark each city name with numbers like 1., 2., 3., etc. Do not include anything that is not in the video.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Here are the city names in the order they were processed:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>昆明</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">
-</t>
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>广州</t>
+    </r>
+  </si>
+  <si>
+    <t>Test Case 22_1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Analyze the video and output the list of all cities in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>order</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> they were processed. Prefix each city with a number (e.g., 1. City Name). Do not include anything that is not shown in the video.The specific task in the video is to search for the temperature of cities on a temperature website and write the temperature information of the cities into an Excel spreadsheet.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Here are the city names in the order they were processed:
+1.</t>
     </r>
     <r>
       <rPr>
@@ -1640,7 +1178,7 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-</t>
+2.</t>
     </r>
     <r>
       <rPr>
@@ -1651,6 +1189,25 @@
       </rPr>
       <t>广州</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>北京</t>
+    </r>
   </si>
   <si>
     <t>Test Case 27</t>
@@ -1662,7 +1219,61 @@
     <t>input\image\2.png</t>
   </si>
   <si>
-    <t>Tell the window title in the image. Window title is usually at the top of the application window within the title bar.</t>
+    <r>
+      <t xml:space="preserve">Tell the window title in the image. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Window title is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> usually at the top of the application window within the title bar.</t>
+    </r>
+  </si>
+  <si>
+    <t>Seems there's no window title shown in the image.</t>
+  </si>
+  <si>
+    <t>no window title</t>
+  </si>
+  <si>
+    <t>Test Case 27_1</t>
+  </si>
+  <si>
+    <t>input\image\14.png</t>
+  </si>
+  <si>
+    <r>
+      <t>上海天气</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>百度搜索</t>
+    </r>
   </si>
   <si>
     <t>Test Case 29</t>
@@ -1674,7 +1285,18 @@
     <t>input\image\3.png</t>
   </si>
   <si>
-    <t>Identify the controls on the provided image. For each control type (such as button, combo box, dropdown, etc.), list the count and the names of the controls. Present the results in JSON format where the key is the control type and the value is an object containing a list of the control names and the count. For example, if there are two buttons named "OK" and "Close", the JSON would be: "{"button":{"count":2,"names":["OK","Close"]}}". Distinguish between combo boxes and dropdowns carefully.</t>
+    <r>
+      <t xml:space="preserve">Identify the controls on the provided image. For each control type (such as button, combo box, dropdown, etc.), list the count and the names of the controls. Present the results in JSON format where the key is the control type and the value is an object containing a list of the control names and the count. For example, if there are two buttons named "OK" and "Close", the JSON would be: "{"button":{"count":2,"names":["OK","Close"]}}". </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Distinguish between combo boxes and dropdowns carefully.</t>
+    </r>
   </si>
   <si>
     <t>```json
@@ -1686,6 +1308,20 @@
   </si>
   <si>
     <t>input\image\4.png</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Identify all the controls on the entire image, including both left and right parts. For each control type (such as button, combo box, dropdown, etc.), list the count and the names of the controls. Present the results in JSON format where the key is the control type and the value is an object containing a list of the control names and the count. For example, if there are two buttons named "OK" and "Close", the JSON would be: "{"button":{"count":2,"names":["OK","Close"]}}". </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Distinguish between combo boxes and dropdowns carefully.</t>
+    </r>
   </si>
   <si>
     <t>```json
@@ -1721,10 +1357,18 @@
     <t>input\image\6.png</t>
   </si>
   <si>
-    <t>Identify the number of "Refresh" buttons on the provided image. Present the result as a single number only. For example, if there are five refresh buttons, show '5'.</t>
-  </si>
-  <si>
-    <t>SUCCESS</t>
+    <r>
+      <t xml:space="preserve">Identify the number of "Refresh" buttons on the provided image. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Present the result as a single number only. For example, if there are five refresh buttons, show '5'.</t>
+    </r>
   </si>
   <si>
     <t>Test Case 38</t>
@@ -1736,9 +1380,28 @@
     <t>json string generation from video</t>
   </si>
   <si>
-    <t>Analyze the provided video and learn only the steps and processes that are present in the video. For each step in the video, identify the step action type, action value, action description, next step, and the pixel coordinates of that step. Present the results in JSON format where each item represents a step and contains the fields: 
+    <r>
+      <t xml:space="preserve">Analyze the provided video and learn </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>only the steps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> and processes that are present in the video. For each step in the video, identify the step action type, action value, action description, next step, and the pixel coordinates of that step. Present the results in JSON format where each item represents a step and contains the fields: 
 "step",
-"action_type", "action_value", "action_description",  "pixel_coordinates" and "next_step".</t>
+"action_type", "action_value", "action_description",  "pixel_coordinates" and "next_step". Note that the resolution of the video when I recorded it is 2560*1379.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -4461,7 +4124,7 @@
     <t>input\image\7.png</t>
   </si>
   <si>
-    <t>Identify the value in cell E1 of the Excel sheet in the image. Pay attention to distinguishing between the letter 'i' and the number '1'. Present the result clearly.</t>
+    <t>Identify the value in cell E1 of the Excel sheet in the image. Pay attention to distinguishing between the letter 'l' and the number '1'. Present the result clearly.</t>
   </si>
   <si>
     <t>The value in cell E1 is LL1111.</t>
@@ -4470,16 +4133,102 @@
     <t>LL11ll</t>
   </si>
   <si>
+    <t>Test Case 44_1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Analyze the Excel screenshot image and output the cell contents in JSON format. The key represents the cell position (e.g., A1, B1), and the value is the content of the corresponding cell. Note that some cell values may contain characters like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'1','l', '0', 'o'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, which can be easily confused. Pay special attention to these characters when outputting the results.</t>
+    </r>
+  </si>
+  <si>
+    <t>```json
+{
+    "A1": "too",
+    "B1": "t00",
+    "C1": "ll",
+    "D1": "iill",
+    "E1": "LL11II",
+    "A3": "top",
+    "B3": "100",
+    "C3": "lily",
+    "E4": "Lee"
+}
+```</t>
+  </si>
+  <si>
+    <r>
+      <t>```json
+{
+    "A1": "too",
+    "B1": "t00",
+    "C1": "ll",
+    "D1": "iill",
+    "E1": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LL11ll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+    "A3": "top",
+    "B3": "100",
+    "C3": "lily",
+    "E4": "Lee"
+}
+```</t>
+    </r>
+  </si>
+  <si>
     <t>Test Case 48</t>
   </si>
   <si>
     <t>text recognition in Excel image/OCR</t>
   </si>
   <si>
-    <t>Show me the json data for all the tables in the image with table name, table attributes, table values, pay attention to the accuracy of recognition.</t>
-  </si>
-  <si>
-    <t>```json
+    <r>
+      <t xml:space="preserve">Show me the json data for all the tables in the image with table name, table attributes, table values, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pay attention to the accuracy of recognition. Pay attention to recognize '4' and 'A', '5' and 'S'.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>```json
 [
   {
     "table": "Current Users Summary",
@@ -4580,7 +4329,25 @@
         "O"
       ],
       [
-        "31581401",
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>31581401</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
         "315814015",
         "A"
       ]
@@ -4660,6 +4427,7 @@
   }
 ]
 ```</t>
+    </r>
   </si>
   <si>
     <t>Test Case 59</t>
@@ -4674,7 +4442,26 @@
     <t>input\image\11.png</t>
   </si>
   <si>
-    <t>I want merge the first row in Excel spreadsheet. Analyze the current steps shown in the image which already done. Based on the analysis, provide the exact next step with detailed instructions.</t>
+    <r>
+      <t>I want merge the first row in Excel spreadsheet. Analyze the current steps shown in the image which already done. Based on the analysis,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> provide the exact next step</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> with detailed instructions.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -4699,6 +4486,129 @@
       <t>" button, which means "Confirm" in English. 
 This will merge the selected cells in the first row.</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> click on the "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <t>Test Case 69</t>
+  </si>
+  <si>
+    <t>input\image\2.mp4</t>
+  </si>
+  <si>
+    <t>Please accurately analyze the number of times "123" appears, ensure the accuracy and consistency of the results.</t>
+  </si>
+  <si>
+    <t>5 times/ 4 times</t>
+  </si>
+  <si>
+    <t>Gemerni seems have a more strong ability to analyze static image than video.</t>
+  </si>
+  <si>
+    <t>Test Case 70</t>
+  </si>
+  <si>
+    <t>input\image\3.mp4</t>
+  </si>
+  <si>
+    <t>Analyze the number of click events in the video. Each click is accompanied by a water ripple for the cursor. Determine the number of clicks based on the number of visible water ripples.</t>
+  </si>
+  <si>
+    <t>There are 9 water ripples visible in the video, so there are 9 clicks.</t>
+  </si>
+  <si>
+    <t>Test Case 71</t>
+  </si>
+  <si>
+    <t>Analyze the number of click events in the video. In Excel operations, each time an Excel cell is clicked, a selection frame appears. Determine the number of clicks based on the number of visible selection frames.</t>
+  </si>
+  <si>
+    <t>There are 6 click events in the video.</t>
+  </si>
+  <si>
+    <t>input\image\4.mp4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Analyze the video to count the number of times the prompt box with a red background and white text appears and contains the words "&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>左键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;". Each such occurrence represents a left-click event. Determine the total number of left-click events.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>The prompt box appears 5 times with the text "&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>左键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;". Therefore, there are 5 left-click events in the video.</t>
+    </r>
+  </si>
+  <si>
+    <t>Test Case 72</t>
+  </si>
+  <si>
+    <t>input\image\13.png</t>
+  </si>
+  <si>
+    <t>The number "123" appears 4 times in the image.</t>
   </si>
 </sst>
 </file>
@@ -4711,7 +4621,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4881,13 +4791,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4903,6 +4830,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5093,7 +5026,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -5111,6 +5044,43 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -5240,7 +5210,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5252,119 +5222,119 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5392,14 +5362,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -5712,24 +5697,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="4" width="16.625" customWidth="1"/>
     <col min="5" max="5" width="47.875" customWidth="1"/>
     <col min="6" max="6" width="60.875" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
     <col min="8" max="8" width="24.125" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:8">
+    <row r="1" ht="15.75" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5754,500 +5740,597 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" customFormat="1" ht="225" spans="1:8">
+    <row r="2" customFormat="1" ht="270" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="H2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="8"/>
     </row>
-    <row r="3" customFormat="1" ht="60" spans="1:8">
+    <row r="3" customFormat="1" ht="135" spans="1:9">
       <c r="A3" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" customFormat="1" ht="409.5" spans="1:9">
+      <c r="A4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" customFormat="1" ht="75" spans="1:9">
+      <c r="A5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" customFormat="1" ht="409.5" spans="1:9">
+      <c r="A6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" customFormat="1" ht="120" spans="1:9">
+      <c r="A7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="8"/>
     </row>
-    <row r="4" customFormat="1" ht="75" spans="1:8">
-      <c r="A4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="7" t="s">
+    <row r="8" customFormat="1" ht="75" spans="1:9">
+      <c r="A8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" customFormat="1" ht="105" spans="1:9">
+      <c r="A9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" customFormat="1" ht="30" spans="1:9">
+      <c r="A10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="10">
+      <c r="C10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" customFormat="1" ht="30" spans="1:9">
+      <c r="A11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" customFormat="1" ht="135" spans="1:9">
+      <c r="A12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" customFormat="1" ht="330" spans="1:9">
+      <c r="A13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" customFormat="1" ht="45" spans="1:9">
+      <c r="A14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="11">
         <v>6</v>
       </c>
-      <c r="G4" s="10">
-        <v>18</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>21</v>
-      </c>
+      <c r="G14" s="11">
+        <v>6</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="8"/>
     </row>
-    <row r="5" customFormat="1" ht="270" spans="1:8">
-      <c r="A5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+    <row r="15" customFormat="1" ht="409.5" spans="1:9">
+      <c r="A15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="8"/>
     </row>
-    <row r="6" customFormat="1" ht="60" spans="1:8">
-      <c r="A6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+    <row r="16" customFormat="1" ht="45" spans="1:9">
+      <c r="A16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="8"/>
     </row>
-    <row r="7" customFormat="1" ht="90" spans="1:8">
-      <c r="A7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="5" t="s">
+    <row r="17" customFormat="1" ht="195" spans="1:9">
+      <c r="A17" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="I17" s="8"/>
     </row>
-    <row r="8" customFormat="1" ht="45" spans="1:8">
-      <c r="A8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" customFormat="1" ht="409.5" spans="1:8">
-      <c r="A9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" customFormat="1" ht="409.5" spans="1:8">
-      <c r="A10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" customFormat="1" ht="120" spans="1:8">
-      <c r="A11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" customFormat="1" ht="105" spans="1:8">
-      <c r="A12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" customFormat="1" ht="120" spans="1:8">
-      <c r="A13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" customFormat="1" ht="60" spans="1:8">
-      <c r="A14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" customFormat="1" ht="73.5" spans="1:8">
-      <c r="A15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" customFormat="1" ht="30" spans="1:8">
-      <c r="A16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" customFormat="1" ht="135" spans="1:8">
-      <c r="A17" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" customFormat="1" ht="330" spans="1:8">
+    <row r="18" customFormat="1" ht="409.5" spans="1:9">
       <c r="A18" s="5" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>69</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+        <v>88</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="8"/>
     </row>
-    <row r="19" customFormat="1" ht="45" spans="1:8">
+    <row r="19" customFormat="1" ht="60" spans="1:9">
       <c r="A19" s="5" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="10">
-        <v>6</v>
-      </c>
-      <c r="G19" s="10">
-        <v>6</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>75</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="8"/>
     </row>
-    <row r="20" customFormat="1" ht="409.5" spans="1:8">
+    <row r="20" ht="30" spans="1:9">
       <c r="A20" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>10</v>
+        <v>97</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="9">
+        <v>4</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="21" customFormat="1" ht="45" spans="1:8">
+    <row r="21" ht="60" spans="1:9">
       <c r="A21" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>83</v>
+        <v>102</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>21</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="9">
+        <v>4</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="15"/>
     </row>
-    <row r="22" customFormat="1" ht="409.5" spans="1:8">
+    <row r="22" ht="60" spans="1:9">
       <c r="A22" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>73</v>
+        <v>106</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+        <v>107</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="9">
+        <v>4</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="15"/>
     </row>
-    <row r="23" customFormat="1" ht="60" spans="1:8">
+    <row r="23" customFormat="1" ht="75" spans="1:9">
       <c r="A23" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>94</v>
+        <v>106</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+        <v>110</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" s="9">
+        <v>4</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" customFormat="1" ht="30" spans="1:9">
+      <c r="A24" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="10">
+        <v>4</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="16"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I20:I24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
